--- a/P0013/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0013/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0013/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2713" documentId="13_ncr:1_{F212FA78-C3B0-4520-B181-A6B27D63595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5EBE87-8003-4485-A7AC-87DF84B5F755}"/>
+  <xr:revisionPtr revIDLastSave="2717" documentId="13_ncr:1_{F212FA78-C3B0-4520-B181-A6B27D63595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B53CF6E-26F5-426F-BAFD-BC5F0D9EF929}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1605" windowWidth="10050" windowHeight="6690" xr2:uid="{639FD3BF-4B19-4039-94F2-C85F48C0DF35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{639FD3BF-4B19-4039-94F2-C85F48C0DF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2037,7 +2037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2375,7 +2375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2392,19 +2392,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2414,17 +2407,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2434,20 +2416,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2457,14 +2431,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2477,23 +2446,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2835,12 +2812,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16D1691-67A4-49FB-8C2A-6EF950FBF2D0}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
@@ -2858,7 +2835,7 @@
     <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2942,10 +2919,10 @@
       <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2963,14 +2940,14 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2998,10 +2975,10 @@
       <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -3019,14 +2996,14 @@
       <c r="P3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3054,10 +3031,10 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -3075,14 +3052,14 @@
       <c r="P4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3110,10 +3087,10 @@
       <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>53</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -3131,14 +3108,14 @@
       <c r="P5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3166,10 +3143,10 @@
       <c r="I6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>61</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -3187,14 +3164,14 @@
       <c r="P6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3222,10 +3199,10 @@
       <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -3243,14 +3220,14 @@
       <c r="P7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3278,10 +3255,10 @@
       <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -3299,14 +3276,14 @@
       <c r="P8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3334,10 +3311,10 @@
       <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>85</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -3355,14 +3332,14 @@
       <c r="P9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3390,10 +3367,10 @@
       <c r="I10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -3411,30 +3388,30 @@
       <c r="P10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="12" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="27" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="4">
         <v>2017</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="27" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -3443,39 +3420,39 @@
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="I11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="47"/>
-    </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+      <c r="S11" s="30"/>
+    </row>
+    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3503,10 +3480,10 @@
       <c r="I12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>108</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -3524,14 +3501,14 @@
       <c r="P12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="13" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -3559,10 +3536,10 @@
       <c r="I13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>115</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -3580,14 +3557,14 @@
       <c r="P13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -3615,10 +3592,10 @@
       <c r="I14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="14" t="s">
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>123</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -3636,14 +3613,14 @@
       <c r="P14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3671,10 +3648,10 @@
       <c r="I15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>131</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -3692,14 +3669,14 @@
       <c r="P15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -3727,10 +3704,10 @@
       <c r="I16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="14" t="s">
+      <c r="J16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>139</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -3748,14 +3725,14 @@
       <c r="P16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -3783,10 +3760,10 @@
       <c r="I17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="14" t="s">
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>146</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -3804,14 +3781,14 @@
       <c r="P17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="18" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3839,10 +3816,10 @@
       <c r="I18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="14" t="s">
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>153</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -3860,14 +3837,14 @@
       <c r="P18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3895,10 +3872,10 @@
       <c r="I19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="J19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>161</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -3916,14 +3893,14 @@
       <c r="P19" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -3951,10 +3928,10 @@
       <c r="I20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="J20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>169</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -3972,14 +3949,14 @@
       <c r="P20" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -4007,10 +3984,10 @@
       <c r="I21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="14" t="s">
+      <c r="J21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>177</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -4028,14 +4005,14 @@
       <c r="P21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -4063,10 +4040,10 @@
       <c r="I22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>185</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -4084,14 +4061,14 @@
       <c r="P22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -4119,10 +4096,10 @@
       <c r="I23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="14" t="s">
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>193</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -4140,14 +4117,14 @@
       <c r="P23" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="R23" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="24" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -4175,10 +4152,10 @@
       <c r="I24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="14" t="s">
+      <c r="J24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>201</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -4196,14 +4173,14 @@
       <c r="P24" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="25" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -4231,10 +4208,10 @@
       <c r="I25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="14" t="s">
+      <c r="J25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>209</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -4252,14 +4229,14 @@
       <c r="P25" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="26" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -4287,10 +4264,10 @@
       <c r="I26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="14" t="s">
+      <c r="J26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>217</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -4308,14 +4285,14 @@
       <c r="P26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="27" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -4343,10 +4320,10 @@
       <c r="I27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="14" t="s">
+      <c r="J27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>224</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -4364,14 +4341,14 @@
       <c r="P27" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R27" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="28" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -4399,10 +4376,10 @@
       <c r="I28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="14" t="s">
+      <c r="J28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>232</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -4420,14 +4397,14 @@
       <c r="P28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="R28" s="14" t="s">
+      <c r="R28" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="29" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -4455,10 +4432,10 @@
       <c r="I29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="J29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>240</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -4476,14 +4453,14 @@
       <c r="P29" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="R29" s="14" t="s">
+      <c r="R29" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="30" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -4511,10 +4488,10 @@
       <c r="I30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="14" t="s">
+      <c r="J30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>248</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -4532,14 +4509,14 @@
       <c r="P30" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -4567,10 +4544,10 @@
       <c r="I31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="14" t="s">
+      <c r="J31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>256</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -4588,14 +4565,14 @@
       <c r="P31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="R31" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -4623,10 +4600,10 @@
       <c r="I32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="14" t="s">
+      <c r="J32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>263</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -4644,14 +4621,14 @@
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="33" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
@@ -4679,10 +4656,10 @@
       <c r="I33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="14" t="s">
+      <c r="J33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>270</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -4700,14 +4677,14 @@
       <c r="P33" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="34" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -4735,10 +4712,10 @@
       <c r="I34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="14" t="s">
+      <c r="J34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>279</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -4756,14 +4733,14 @@
       <c r="P34" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
@@ -4791,10 +4768,10 @@
       <c r="I35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="14" t="s">
+      <c r="J35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>286</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -4812,14 +4789,14 @@
       <c r="P35" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="36" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
@@ -4847,10 +4824,10 @@
       <c r="I36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="14" t="s">
+      <c r="J36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>293</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -4868,14 +4845,14 @@
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R36" s="14" t="s">
+      <c r="R36" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="37" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -4903,10 +4880,10 @@
       <c r="I37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="14" t="s">
+      <c r="J37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>299</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -4924,14 +4901,14 @@
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
@@ -4959,10 +4936,10 @@
       <c r="I38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="14" t="s">
+      <c r="J38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>305</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -4980,14 +4957,14 @@
       <c r="P38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R38" s="14" t="s">
+      <c r="R38" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="39" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -5015,10 +4992,10 @@
       <c r="I39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="J39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>311</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -5036,14 +5013,14 @@
       <c r="P39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R39" s="14" t="s">
+      <c r="R39" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="40" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -5071,10 +5048,10 @@
       <c r="I40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="14" t="s">
+      <c r="J40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>317</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -5092,14 +5069,14 @@
       <c r="P40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="41" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
@@ -5127,10 +5104,10 @@
       <c r="I41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="14" t="s">
+      <c r="J41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>323</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -5148,14 +5125,14 @@
       <c r="P41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="Q41" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R41" s="14" t="s">
+      <c r="R41" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="42" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>18</v>
       </c>
@@ -5183,10 +5160,10 @@
       <c r="I42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="14" t="s">
+      <c r="J42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -5201,17 +5178,17 @@
       <c r="O42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="Q42" s="50" t="s">
+      <c r="Q42" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="R42" s="14" t="s">
+      <c r="R42" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="43" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -5239,10 +5216,10 @@
       <c r="I43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="14" t="s">
+      <c r="J43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>337</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -5260,14 +5237,14 @@
       <c r="P43" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="Q43" s="23" t="s">
+      <c r="Q43" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="44" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
@@ -5295,10 +5272,10 @@
       <c r="I44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="14" t="s">
+      <c r="J44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>345</v>
       </c>
       <c r="L44" s="4" t="s">
@@ -5316,14 +5293,14 @@
       <c r="P44" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="R44" s="14" t="s">
+      <c r="R44" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="45" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
@@ -5351,10 +5328,10 @@
       <c r="I45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="14" t="s">
+      <c r="J45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="9" t="s">
         <v>353</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -5372,14 +5349,14 @@
       <c r="P45" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="R45" s="14" t="s">
+      <c r="R45" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="46" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>18</v>
       </c>
@@ -5407,10 +5384,10 @@
       <c r="I46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="14" t="s">
+      <c r="J46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>361</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -5428,14 +5405,14 @@
       <c r="P46" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="R46" s="14" t="s">
+      <c r="R46" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="47" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>18</v>
       </c>
@@ -5463,10 +5440,10 @@
       <c r="I47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="14" t="s">
+      <c r="J47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="9" t="s">
         <v>369</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -5484,14 +5461,14 @@
       <c r="P47" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="R47" s="14" t="s">
+      <c r="R47" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="48" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
@@ -5519,10 +5496,10 @@
       <c r="I48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="14" t="s">
+      <c r="J48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>377</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -5540,14 +5517,14 @@
       <c r="P48" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="R48" s="14" t="s">
+      <c r="R48" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="49" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
@@ -5575,10 +5552,10 @@
       <c r="I49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="14" t="s">
+      <c r="J49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>385</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -5596,14 +5573,14 @@
       <c r="P49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="8" t="s">
+      <c r="Q49" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="R49" s="14" t="s">
+      <c r="R49" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="50" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
@@ -5631,10 +5608,10 @@
       <c r="I50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" s="14" t="s">
+      <c r="J50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>392</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -5652,14 +5629,14 @@
       <c r="P50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="R50" s="14" t="s">
+      <c r="R50" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="51" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -5687,10 +5664,10 @@
       <c r="I51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="14" t="s">
+      <c r="J51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>399</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -5708,14 +5685,14 @@
       <c r="P51" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="Q51" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="R51" s="14" t="s">
+      <c r="R51" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="52" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
@@ -5743,10 +5720,10 @@
       <c r="I52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="14" t="s">
+      <c r="J52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>407</v>
       </c>
       <c r="L52" s="4" t="s">
@@ -5764,14 +5741,14 @@
       <c r="P52" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="R52" s="14" t="s">
+      <c r="R52" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="53" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
@@ -5799,10 +5776,10 @@
       <c r="I53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="14" t="s">
+      <c r="J53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>414</v>
       </c>
       <c r="L53" s="4" t="s">
@@ -5811,7 +5788,7 @@
       <c r="M53" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O53" s="4" t="s">
@@ -5820,14 +5797,14 @@
       <c r="P53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="50" t="s">
+      <c r="Q53" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="R53" s="14" t="s">
+      <c r="R53" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="54" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>18</v>
       </c>
@@ -5855,10 +5832,10 @@
       <c r="I54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="14" t="s">
+      <c r="J54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>421</v>
       </c>
       <c r="L54" s="4" t="s">
@@ -5867,7 +5844,7 @@
       <c r="M54" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" s="4" t="s">
         <v>422</v>
       </c>
       <c r="O54" s="4" t="s">
@@ -5876,14 +5853,14 @@
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="R54" s="14" t="s">
+      <c r="R54" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="55" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>18</v>
       </c>
@@ -5911,10 +5888,10 @@
       <c r="I55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="14" t="s">
+      <c r="J55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>428</v>
       </c>
       <c r="L55" s="4" t="s">
@@ -5923,7 +5900,7 @@
       <c r="M55" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="N55" s="32" t="s">
         <v>429</v>
       </c>
       <c r="O55" s="4" t="s">
@@ -5932,14 +5909,14 @@
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="50" t="s">
+      <c r="Q55" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="R55" s="14" t="s">
+      <c r="R55" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="56" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
@@ -5967,10 +5944,10 @@
       <c r="I56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="25" t="s">
         <v>435</v>
       </c>
       <c r="L56" s="4" t="s">
@@ -5979,7 +5956,7 @@
       <c r="M56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N56" s="17" t="s">
+      <c r="N56" s="25" t="s">
         <v>436</v>
       </c>
       <c r="O56" s="4" t="s">
@@ -5988,14 +5965,14 @@
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="50" t="s">
+      <c r="Q56" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="R56" s="14" t="s">
+      <c r="R56" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="57" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -6023,10 +6000,10 @@
       <c r="I57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="J57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>442</v>
       </c>
       <c r="L57" s="4" t="s">
@@ -6044,21 +6021,21 @@
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="22" t="s">
+      <c r="Q57" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="R57" s="14" t="s">
+      <c r="R57" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="58" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="33" t="s">
         <v>447</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -6079,10 +6056,10 @@
       <c r="I58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="17" t="s">
+      <c r="J58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="25" t="s">
         <v>449</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -6091,23 +6068,23 @@
       <c r="M58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="N58" s="32" t="s">
         <v>450</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q58" s="50" t="s">
+      <c r="P58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="R58" s="14" t="s">
+      <c r="R58" s="9" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="59" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>18</v>
       </c>
@@ -6135,35 +6112,35 @@
       <c r="I59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N59" s="13" t="s">
+      <c r="N59" s="8" t="s">
         <v>457</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="50" t="s">
+      <c r="P59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="R59" s="14" t="s">
+      <c r="R59" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="60" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>18</v>
       </c>
@@ -6191,35 +6168,35 @@
       <c r="I60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" s="19" t="s">
+      <c r="J60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="L60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N60" s="17" t="s">
+      <c r="N60" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="O60" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q60" s="50" t="s">
+      <c r="P60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="R60" s="14" t="s">
+      <c r="R60" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="61" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -6247,35 +6224,35 @@
       <c r="I61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" s="12" t="s">
+      <c r="J61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="L61" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N61" s="17" t="s">
+      <c r="N61" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" s="50" t="s">
+      <c r="P61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="R61" s="14" t="s">
+      <c r="R61" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="62" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>18</v>
       </c>
@@ -6285,7 +6262,7 @@
       <c r="C62" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>476</v>
       </c>
       <c r="E62" s="4">
@@ -6303,203 +6280,203 @@
       <c r="I62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" s="12" t="s">
+      <c r="J62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="8" t="s">
+      <c r="L62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N62" s="20" t="s">
+      <c r="N62" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="51" t="s">
+      <c r="P62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="R62" s="14" t="s">
+      <c r="R62" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="13" t="s">
+    <row r="63" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="E63" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="E63" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" s="12" t="s">
+      <c r="I63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="L63" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="22" t="s">
+      <c r="L63" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N63" s="20" t="s">
+      <c r="N63" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="O63" s="21" t="s">
+      <c r="O63" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P63" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="51" t="s">
+      <c r="P63" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R63" s="12" t="s">
+      <c r="R63" s="25" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="14" t="s">
+    <row r="64" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E64" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="14" t="s">
+      <c r="E64" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I64" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="I64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="L64" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="14" t="s">
+      <c r="L64" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N64" s="12" t="s">
+      <c r="N64" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="O64" s="14" t="s">
+      <c r="O64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P64" s="14" t="s">
+      <c r="P64" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="Q64" s="50" t="s">
+      <c r="Q64" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="R64" s="14" t="s">
+      <c r="R64" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A65" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="15" t="s">
+    <row r="65" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E65" s="15">
-        <v>2017</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J65" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" s="17" t="s">
+      <c r="E65" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="L65" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" s="23" t="s">
+      <c r="L65" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N65" s="26" t="s">
+      <c r="N65" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="O65" s="25" t="s">
+      <c r="O65" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P65" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q65" s="52" t="s">
+      <c r="P65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="R65" s="14" t="s">
+      <c r="R65" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="66" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>18</v>
       </c>
@@ -6527,10 +6504,10 @@
       <c r="I66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="14" t="s">
+      <c r="J66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>506</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -6539,695 +6516,695 @@
       <c r="M66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="N66" s="32" t="s">
         <v>507</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="P66" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="Q66" s="51" t="s">
+      <c r="Q66" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="R66" s="14" t="s">
+      <c r="R66" s="9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="13" t="s">
+    <row r="67" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="E67" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="14" t="s">
+      <c r="E67" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="L67" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="22" t="s">
+      <c r="L67" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N67" s="20" t="s">
+      <c r="N67" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="O67" s="21" t="s">
+      <c r="O67" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P67" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="51" t="s">
+      <c r="P67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R67" s="12" t="s">
+      <c r="R67" s="25" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="14" t="s">
+    <row r="68" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="E68" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="E68" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="L68" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68" s="14" t="s">
+      <c r="L68" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N68" s="12" t="s">
+      <c r="N68" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="O68" s="14" t="s">
+      <c r="O68" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P68" s="14" t="s">
+      <c r="P68" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="Q68" s="35" t="s">
+      <c r="Q68" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="R68" s="14" t="s">
+      <c r="R68" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A69" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="15" t="s">
+    <row r="69" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="E69" s="15">
-        <v>2017</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="14" t="s">
+      <c r="E69" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="L69" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M69" s="15" t="s">
+      <c r="L69" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N69" s="16" t="s">
+      <c r="N69" s="32" t="s">
         <v>527</v>
       </c>
-      <c r="O69" s="15" t="s">
+      <c r="O69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P69" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q69" s="52" t="s">
+      <c r="P69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="R69" s="14" t="s">
+      <c r="R69" s="9" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="E70" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="14" t="s">
+      <c r="E70" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="L70" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M70" s="22" t="s">
+      <c r="L70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N70" s="27" t="s">
+      <c r="N70" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="O70" s="21" t="s">
+      <c r="O70" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P70" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q70" s="51" t="s">
+      <c r="P70" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R70" s="12" t="s">
+      <c r="R70" s="25" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="14" t="s">
+    <row r="71" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="E71" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K71" s="14" t="s">
+      <c r="E71" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="L71" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M71" s="14" t="s">
+      <c r="L71" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N71" s="14" t="s">
+      <c r="N71" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="O71" s="14" t="s">
+      <c r="O71" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P71" s="14" t="s">
+      <c r="P71" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="Q71" s="50" t="s">
+      <c r="Q71" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="R71" s="14" t="s">
+      <c r="R71" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A72" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="15" t="s">
+    <row r="72" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="E72" s="15">
-        <v>2017</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K72" s="19" t="s">
+      <c r="E72" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="L72" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M72" s="23" t="s">
+      <c r="L72" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N72" s="24" t="s">
+      <c r="N72" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="O72" s="25" t="s">
+      <c r="O72" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P72" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q72" s="52" t="s">
+      <c r="P72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="R72" s="14" t="s">
+      <c r="R72" s="9" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="13" t="s">
+    <row r="73" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="E73" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" s="14" t="s">
+      <c r="E73" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="L73" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M73" s="22" t="s">
+      <c r="L73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N73" s="29" t="s">
+      <c r="N73" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="O73" s="21" t="s">
+      <c r="O73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P73" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q73" s="51" t="s">
+      <c r="P73" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R73" s="12" t="s">
+      <c r="R73" s="25" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="14" t="s">
+    <row r="74" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E74" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K74" s="14" t="s">
+      <c r="E74" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="L74" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="14" t="s">
+      <c r="L74" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N74" s="14" t="s">
+      <c r="N74" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="O74" s="14" t="s">
+      <c r="O74" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P74" s="14" t="s">
+      <c r="P74" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="Q74" s="50" t="s">
+      <c r="Q74" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="R74" s="14" t="s">
+      <c r="R74" s="9" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="15" t="s">
+    <row r="75" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="E75" s="15">
-        <v>2017</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J75" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" s="19" t="s">
+      <c r="E75" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="L75" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75" s="15" t="s">
+      <c r="L75" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N75" s="28" t="s">
+      <c r="N75" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="O75" s="15" t="s">
+      <c r="O75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P75" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q75" s="52" t="s">
+      <c r="P75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="R75" s="14" t="s">
+      <c r="R75" s="9" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A76" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="13" t="s">
+    <row r="76" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="E76" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K76" s="14" t="s">
+      <c r="E76" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="L76" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="22" t="s">
+      <c r="L76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N76" s="30" t="s">
+      <c r="N76" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="O76" s="21" t="s">
+      <c r="O76" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P76" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="51" t="s">
+      <c r="P76" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R76" s="12" t="s">
+      <c r="R76" s="25" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="14" t="s">
+    <row r="77" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="E77" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" s="14" t="s">
+      <c r="E77" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="L77" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" s="14" t="s">
+      <c r="L77" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N77" s="12" t="s">
+      <c r="N77" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="O77" s="14" t="s">
+      <c r="O77" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P77" s="14" t="s">
+      <c r="P77" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="Q77" s="50" t="s">
+      <c r="Q77" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="R77" s="14" t="s">
+      <c r="R77" s="9" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A78" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="15" t="s">
+    <row r="78" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="E78" s="15">
-        <v>2017</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K78" s="14" t="s">
+      <c r="E78" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="L78" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M78" s="15" t="s">
+      <c r="L78" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N78" s="16" t="s">
+      <c r="N78" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="O78" s="15" t="s">
+      <c r="O78" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P78" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q78" s="53" t="s">
+      <c r="P78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="R78" s="14" t="s">
+      <c r="R78" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="79" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>18</v>
       </c>
@@ -7255,10 +7232,10 @@
       <c r="I79" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K79" s="14" t="s">
+      <c r="J79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="9" t="s">
         <v>590</v>
       </c>
       <c r="L79" s="4" t="s">
@@ -7267,7 +7244,7 @@
       <c r="M79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N79" s="33" t="s">
+      <c r="N79" s="8" t="s">
         <v>591</v>
       </c>
       <c r="O79" s="4" t="s">
@@ -7276,14 +7253,14 @@
       <c r="P79" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="Q79" s="7" t="s">
+      <c r="Q79" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="R79" s="14" t="s">
+      <c r="R79" s="9" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="80" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>18</v>
       </c>
@@ -7299,47 +7276,47 @@
       <c r="E80" s="4">
         <v>2017</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" s="13" t="s">
+      <c r="F80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K80" s="14" t="s">
+      <c r="J80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="L80" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="22" t="s">
+      <c r="L80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N80" s="34" t="s">
+      <c r="N80" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="O80" s="9" t="s">
+      <c r="O80" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P80" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q80" s="50" t="s">
+      <c r="P80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="R80" s="12" t="s">
+      <c r="R80" s="25" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
+    <row r="81" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>18</v>
       </c>
@@ -7352,555 +7329,554 @@
       <c r="D81" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E81" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J81" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="34" t="s">
+      <c r="E81" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="L81" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M81" s="14" t="s">
+      <c r="L81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N81" s="36" t="s">
+      <c r="N81" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="O81" s="14" t="s">
+      <c r="O81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P81" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q81" s="52" t="s">
+      <c r="P81" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="R81" s="14" t="s">
+      <c r="R81" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A82" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="13" t="s">
+    <row r="82" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="E82" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="45" t="s">
+      <c r="E82" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="L82" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M82" s="38" t="s">
+      <c r="L82" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="N82" s="29" t="s">
+      <c r="N82" s="39" t="s">
         <v>609</v>
       </c>
-      <c r="O82" s="21" t="s">
+      <c r="O82" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q82" s="51" t="s">
+      <c r="P82" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R82" s="12" t="s">
+      <c r="R82" s="25" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="14" t="s">
+    <row r="83" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="E83" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="14" t="s">
+      <c r="E83" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="L83" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M83" s="14" t="s">
+      <c r="L83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M83" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N83" s="12" t="s">
+      <c r="N83" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="O83" s="14" t="s">
+      <c r="O83" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P83" s="14" t="s">
+      <c r="P83" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="Q83" s="50" t="s">
+      <c r="Q83" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="R83" s="14" t="s">
+      <c r="R83" s="9" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A84" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="15" t="s">
+    <row r="84" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="E84" s="23">
-        <v>2017</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="34" t="s">
+      <c r="E84" s="13">
+        <v>2017</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="L84" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" s="31" t="s">
+      <c r="L84" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N84" s="41" t="s">
+      <c r="N84" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="O84" s="31" t="s">
+      <c r="O84" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P84" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q84" s="52" t="s">
+      <c r="P84" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="R84" s="14" t="s">
+      <c r="R84" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="13" t="s">
+    <row r="85" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="E85" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F85" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" s="45" t="s">
+      <c r="E85" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="L85" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="38" t="s">
+      <c r="L85" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="N85" s="29" t="s">
+      <c r="N85" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="O85" s="21" t="s">
+      <c r="O85" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P85" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q85" s="51" t="s">
+      <c r="P85" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R85" s="12" t="s">
+      <c r="R85" s="25" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="14" t="s">
+    <row r="86" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E86" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="34" t="s">
+      <c r="E86" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="L86" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86" s="14" t="s">
+      <c r="L86" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N86" s="12" t="s">
+      <c r="N86" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="O86" s="14" t="s">
+      <c r="O86" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P86" s="14" t="s">
+      <c r="P86" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="Q86" s="50" t="s">
+      <c r="Q86" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="R86" s="14" t="s">
+      <c r="R86" s="9" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A87" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="15" t="s">
+    <row r="87" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="E87" s="23">
-        <v>2017</v>
-      </c>
-      <c r="F87" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J87" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" s="34" t="s">
+      <c r="E87" s="13">
+        <v>2017</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="L87" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M87" s="31" t="s">
+      <c r="L87" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N87" s="43" t="s">
+      <c r="N87" s="45" t="s">
         <v>639</v>
       </c>
-      <c r="O87" s="31" t="s">
+      <c r="O87" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P87" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q87" s="52" t="s">
+      <c r="P87" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="R87" s="14" t="s">
+      <c r="R87" s="9" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="13" t="s">
+    <row r="88" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="E88" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F88" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J88" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K88" s="45" t="s">
+      <c r="E88" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="43" t="s">
         <v>644</v>
       </c>
-      <c r="L88" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M88" s="38" t="s">
+      <c r="L88" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="N88" s="29" t="s">
+      <c r="N88" s="39" t="s">
         <v>645</v>
       </c>
-      <c r="O88" s="21" t="s">
+      <c r="O88" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P88" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q88" s="51" t="s">
+      <c r="P88" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R88" s="12" t="s">
+      <c r="R88" s="25" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="14" t="s">
+    <row r="89" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="E89" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J89" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K89" s="34" t="s">
+      <c r="E89" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="L89" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M89" s="14" t="s">
+      <c r="L89" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N89" s="12" t="s">
+      <c r="N89" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="O89" s="14" t="s">
+      <c r="O89" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P89" s="14" t="s">
+      <c r="P89" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="Q89" s="50" t="s">
+      <c r="Q89" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="R89" s="14" t="s">
+      <c r="R89" s="9" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A90" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="15" t="s">
+    <row r="90" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="E90" s="23">
-        <v>2017</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J90" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="34" t="s">
+      <c r="E90" s="13">
+        <v>2017</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="L90" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M90" s="39" t="s">
+      <c r="L90" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N90" s="44" t="s">
+      <c r="N90" s="46" t="s">
         <v>657</v>
       </c>
-      <c r="O90" s="40" t="s">
+      <c r="O90" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="P90" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q90" s="53" t="s">
+      <c r="P90" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="R90" s="14" t="s">
+      <c r="R90" s="9" t="s">
         <v>659</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R90" xr:uid="{E16D1691-67A4-49FB-8C2A-6EF950FBF2D0}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
